--- a/Assignments.xlsx
+++ b/Assignments.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>Evolution of programming languages. How language has evolved, how jdk, jvm and jre works get this understanding, what are the benefits of OOPL, difference between sequential procedural and OOPL</t>
   </si>
@@ -34,6 +34,63 @@
   </si>
   <si>
     <t>Java</t>
+  </si>
+  <si>
+    <t>jdk</t>
+  </si>
+  <si>
+    <t>jre</t>
+  </si>
+  <si>
+    <t>A program is written in a language which is a human readable language. It may contain words, phrases etc which the machine does not understand. For the source code to be understood by the machine</t>
+  </si>
+  <si>
+    <t>complier</t>
+  </si>
+  <si>
+    <t>JVM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The result of the JAVA compiler is the .class file or the bytecode and not the machine native code (unlike C compiler).In case of C or C++ (language that are not platform independent), the compiler generates an .exe file which is OS dependent. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">JVM is platform dependent.Every system has its own JVM which gets installed automatically when the jdk software is installed. For every operating system separate JVM is available which is capable to read the .class file or byte code.
+The bytecode generated is a non-executable code and needs an interpreter to execute on a machine. This interpreter is the JVM and thus the Bytecode is executed by the JVM. </t>
+  </si>
+  <si>
+    <t>It is the implementation of JVM.It physically exists.It contains set of libraries + other files that JVM uses at runtime.</t>
+  </si>
+  <si>
+    <t>Machine Language</t>
+  </si>
+  <si>
+    <t>Assembly Language</t>
+  </si>
+  <si>
+    <t>High Level Language</t>
+  </si>
+  <si>
+    <t>Scripting Language</t>
+  </si>
+  <si>
+    <t>Natural Language</t>
+  </si>
+  <si>
+    <t>Machine language is the actual bits used to control the processor in the computer, usually viewed as a sequence of hexadecimal numbers (typically bytes). The processor reads these bits in from program memory, and the bits represent "instructions" as to what to do next.</t>
+  </si>
+  <si>
+    <t>Assembly language is a more human readable view of machine language. Instead of representing the machine language as numbers, the instructions and registers are given names (typically abbreviated words, or mnemonics, eg ld means "load"). Unlike a high level language, assembler is very close to the machine language. The main abstractions (apart from the mnemonics) are the use of labels instead of fixed memory addresses, and comments.
+An assembly language program (ie a text file) is translated to machine language by an assembler. A disassembler performs the reverse function (although the comments and the names of labels will have been discarded in the assembler process).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rather than dealing with registers, memory addresses and call stacks, high-level languages deal with variables, arrays, objects, complex arithmetic or boolean expressions, subroutines and functions, loops, threads, locks, and other abstract computer science concepts, with a focus on usability over optimal program efficiency. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The theoretical difference between the two is that scripting languages do not require the compilation step and are rather interpreted. </t>
+  </si>
+  <si>
+    <t>Natural language processing (NLP) is a subfield of computer science, information engineering, and artificial intelligence concerned with the interactions between computers and human (natural) languages, in particular how to program computers to process and analyze large amounts of natural language data.
+Challenges in natural language processing frequently involve speech recognition, natural language understanding, and natural language generation.</t>
   </si>
 </sst>
 </file>
@@ -96,7 +153,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -114,6 +171,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -395,10 +455,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:D11"/>
+  <dimension ref="B2:D20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -456,13 +516,79 @@
       <c r="B9" s="2"/>
       <c r="C9" s="1"/>
     </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B10" s="2"/>
-      <c r="C10" s="1"/>
+      <c r="C10" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B11" s="2"/>
-      <c r="C11" s="1"/>
+      <c r="C11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="C12" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C16" t="s">
+        <v>18</v>
+      </c>
+      <c r="D16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="3:4" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="C17" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D17" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C18" t="s">
+        <v>20</v>
+      </c>
+      <c r="D18" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C19" t="s">
+        <v>21</v>
+      </c>
+      <c r="D19" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="3:4" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="C20" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D20" t="s">
+        <v>17</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
